--- a/raw_data/20200818_saline/20200818_Sensor0_Test_43.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_43.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CCF2B-1F02-443A-B19C-4D7F12748A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>37803.191127</v>
+        <v>37803.191126999998</v>
       </c>
       <c r="B2" s="1">
-        <v>10.500886</v>
+        <v>10.500885999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.833000</v>
+        <v>904.83299999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-180.948000</v>
+        <v>-180.94800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>37813.364045</v>
+        <v>37813.364045000002</v>
       </c>
       <c r="G2" s="1">
         <v>10.503712</v>
       </c>
       <c r="H2" s="1">
-        <v>920.890000</v>
+        <v>920.89</v>
       </c>
       <c r="I2" s="1">
-        <v>-156.608000</v>
+        <v>-156.608</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>37823.829136</v>
       </c>
       <c r="L2" s="1">
-        <v>10.506619</v>
+        <v>10.506619000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.624000</v>
+        <v>944.62400000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.110000</v>
+        <v>-116.11</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>37834.315057</v>
@@ -526,58 +942,58 @@
         <v>10.509532</v>
       </c>
       <c r="R2" s="1">
-        <v>952.102000</v>
+        <v>952.10199999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.112000</v>
+        <v>-102.11199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>37844.565876</v>
+        <v>37844.565876000001</v>
       </c>
       <c r="V2" s="1">
-        <v>10.512379</v>
+        <v>10.512378999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>959.735000</v>
+        <v>959.73500000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.494900</v>
+        <v>-89.494900000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>37855.012118</v>
+        <v>37855.012117999999</v>
       </c>
       <c r="AA2" s="1">
         <v>10.515281</v>
       </c>
       <c r="AB2" s="1">
-        <v>967.881000</v>
+        <v>967.88099999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.511000</v>
+        <v>-80.510999999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>37866.230668</v>
+        <v>37866.230667999997</v>
       </c>
       <c r="AF2" s="1">
         <v>10.518397</v>
       </c>
       <c r="AG2" s="1">
-        <v>973.253000</v>
+        <v>973.25300000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.227600</v>
+        <v>-80.227599999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>37876.424906</v>
@@ -586,28 +1002,28 @@
         <v>10.521229</v>
       </c>
       <c r="AL2" s="1">
-        <v>981.478000</v>
+        <v>981.47799999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.997000</v>
+        <v>-87.997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>37886.965913</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.524157</v>
+        <v>10.524157000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.747000</v>
+        <v>990.74699999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.929000</v>
+        <v>-102.929</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>37898.322172</v>
@@ -616,13 +1032,13 @@
         <v>10.527312</v>
       </c>
       <c r="AV2" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.475000</v>
+        <v>-124.47499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>37909.514013</v>
@@ -631,452 +1047,452 @@
         <v>10.530421</v>
       </c>
       <c r="BA2" s="1">
-        <v>1011.780000</v>
+        <v>1011.78</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.272000</v>
+        <v>-143.27199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>37921.117917</v>
+        <v>37921.117917000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>10.533644</v>
+        <v>10.533644000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1056.880000</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.460000</v>
+        <v>-228.46</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>37931.904912</v>
+        <v>37931.904911999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.536640</v>
+        <v>10.53664</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.664000</v>
+        <v>-365.66399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>37942.678545</v>
+        <v>37942.678545000002</v>
       </c>
       <c r="BO2" s="1">
         <v>10.539633</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.990000</v>
+        <v>1266.99</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.679000</v>
+        <v>-578.67899999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>37953.002244</v>
+        <v>37953.002244000003</v>
       </c>
       <c r="BT2" s="1">
         <v>10.542501</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.000000</v>
+        <v>1415</v>
       </c>
       <c r="BV2" s="1">
-        <v>-807.517000</v>
+        <v>-807.51700000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>37963.665247</v>
+        <v>37963.665246999997</v>
       </c>
       <c r="BY2" s="1">
         <v>10.545463</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1577.710000</v>
+        <v>1577.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1045.940000</v>
+        <v>-1045.94</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>37974.590120</v>
+        <v>37974.590120000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.548497</v>
+        <v>10.548496999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1990.270000</v>
+        <v>1990.27</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1604.220000</v>
+        <v>-1604.22</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>37803.344361</v>
+        <v>37803.344361000003</v>
       </c>
       <c r="B3" s="1">
-        <v>10.500929</v>
+        <v>10.500928999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>904.812000</v>
+        <v>904.81200000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-181.142000</v>
+        <v>-181.142</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>37813.737531</v>
+        <v>37813.737530999999</v>
       </c>
       <c r="G3" s="1">
         <v>10.503816</v>
       </c>
       <c r="H3" s="1">
-        <v>920.708000</v>
+        <v>920.70799999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-156.788000</v>
+        <v>-156.78800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>37824.183773</v>
+        <v>37824.183772999997</v>
       </c>
       <c r="L3" s="1">
-        <v>10.506718</v>
+        <v>10.506717999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>944.726000</v>
+        <v>944.726</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.084000</v>
+        <v>-116.084</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>37834.691023</v>
+        <v>37834.691022999999</v>
       </c>
       <c r="Q3" s="1">
         <v>10.509636</v>
       </c>
       <c r="R3" s="1">
-        <v>952.177000</v>
+        <v>952.17700000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.157000</v>
+        <v>-102.157</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>37845.284609</v>
+        <v>37845.284609000002</v>
       </c>
       <c r="V3" s="1">
-        <v>10.512579</v>
+        <v>10.512579000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>959.620000</v>
+        <v>959.62</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.568400</v>
+        <v>-89.568399999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>37855.741733</v>
+        <v>37855.741733000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.515484</v>
+        <v>10.515484000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>967.929000</v>
+        <v>967.92899999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.576500</v>
+        <v>-80.576499999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>37866.574358</v>
+        <v>37866.574357999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.518493</v>
+        <v>10.518492999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>973.252000</v>
+        <v>973.25199999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.234900</v>
+        <v>-80.234899999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>37876.781064</v>
+        <v>37876.781064000003</v>
       </c>
       <c r="AK3" s="1">
         <v>10.521328</v>
       </c>
       <c r="AL3" s="1">
-        <v>981.458000</v>
+        <v>981.45799999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.992500</v>
+        <v>-87.992500000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>37887.329978</v>
+        <v>37887.329978000002</v>
       </c>
       <c r="AP3" s="1">
         <v>10.524258</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.760000</v>
+        <v>990.76</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.906000</v>
+        <v>-102.90600000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>37899.026634</v>
+        <v>37899.026634000002</v>
       </c>
       <c r="AU3" s="1">
         <v>10.527507</v>
       </c>
       <c r="AV3" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.483000</v>
+        <v>-124.483</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>37910.175217</v>
+        <v>37910.175217000004</v>
       </c>
       <c r="AZ3" s="1">
         <v>10.530604</v>
       </c>
       <c r="BA3" s="1">
-        <v>1011.780000</v>
+        <v>1011.78</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.274000</v>
+        <v>-143.274</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>37921.568781</v>
+        <v>37921.568781000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.533769</v>
+        <v>10.533768999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1056.890000</v>
+        <v>1056.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.477000</v>
+        <v>-228.477</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>37932.284854</v>
+        <v>37932.284853999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.536746</v>
+        <v>10.536746000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.900000</v>
+        <v>1135.9000000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.676000</v>
+        <v>-365.67599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>37943.111520</v>
+        <v>37943.111519999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.539753</v>
+        <v>10.539752999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.772000</v>
+        <v>-578.77200000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>37953.434258</v>
+        <v>37953.434258000001</v>
       </c>
       <c r="BT3" s="1">
         <v>10.542621</v>
       </c>
       <c r="BU3" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-807.596000</v>
+        <v>-807.596</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>37964.240596</v>
+        <v>37964.240596000003</v>
       </c>
       <c r="BY3" s="1">
         <v>10.545622</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1577.730000</v>
+        <v>1577.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1046.120000</v>
+        <v>-1046.1199999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>37975.157574</v>
+        <v>37975.157573999997</v>
       </c>
       <c r="CD3" s="1">
         <v>10.548655</v>
       </c>
       <c r="CE3" s="1">
-        <v>1990.610000</v>
+        <v>1990.61</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1604.190000</v>
+        <v>-1604.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>37803.687593</v>
+        <v>37803.687593000002</v>
       </c>
       <c r="B4" s="1">
-        <v>10.501024</v>
+        <v>10.501023999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.993000</v>
+        <v>904.99300000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-181.381000</v>
+        <v>-181.381</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>37814.076827</v>
+        <v>37814.076826999997</v>
       </c>
       <c r="G4" s="1">
-        <v>10.503910</v>
+        <v>10.503909999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>920.949000</v>
+        <v>920.94899999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-156.774000</v>
+        <v>-156.774</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>37824.874701</v>
+        <v>37824.874701000001</v>
       </c>
       <c r="L4" s="1">
-        <v>10.506910</v>
+        <v>10.50691</v>
       </c>
       <c r="M4" s="1">
-        <v>944.451000</v>
+        <v>944.45100000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.017000</v>
+        <v>-116.017</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>37835.387904</v>
+        <v>37835.387904000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.509830</v>
+        <v>10.509829999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>952.155000</v>
+        <v>952.15499999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.199000</v>
+        <v>-102.199</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>37845.627841</v>
+        <v>37845.627841000001</v>
       </c>
       <c r="V4" s="1">
-        <v>10.512674</v>
+        <v>10.512674000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>959.621000</v>
+        <v>959.62099999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.520100</v>
+        <v>-89.520099999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>37856.089924</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.515581</v>
+        <v>10.515580999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.962000</v>
+        <v>967.96199999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.427000</v>
+        <v>-80.427000000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>37866.920069</v>
@@ -1085,103 +1501,103 @@
         <v>10.518589</v>
       </c>
       <c r="AG4" s="1">
-        <v>973.259000</v>
+        <v>973.25900000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.199200</v>
+        <v>-80.199200000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>37877.436279</v>
+        <v>37877.436279000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>10.521510</v>
+        <v>10.521509999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>981.469000</v>
+        <v>981.46900000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.974900</v>
+        <v>-87.974900000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>37888.007481</v>
+        <v>37888.007481000001</v>
       </c>
       <c r="AP4" s="1">
         <v>10.524447</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.754000</v>
+        <v>990.75400000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>37899.473002</v>
+        <v>37899.473001999999</v>
       </c>
       <c r="AU4" s="1">
         <v>10.527631</v>
       </c>
       <c r="AV4" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.493000</v>
+        <v>-124.49299999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>37910.599755</v>
+        <v>37910.599755000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.530722</v>
+        <v>10.530722000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.285000</v>
+        <v>-143.285</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>37921.928381</v>
+        <v>37921.928380999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.533869</v>
+        <v>10.533868999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1056.870000</v>
+        <v>1056.8699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.472000</v>
+        <v>-228.47200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>37932.658335</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.536850</v>
+        <v>10.536849999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.890000</v>
+        <v>1135.8900000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.668000</v>
+        <v>-365.66800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>37943.507329</v>
@@ -1190,120 +1606,120 @@
         <v>10.539863</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.716000</v>
+        <v>-578.71600000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>37953.858834</v>
+        <v>37953.858833999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>10.542739</v>
+        <v>10.542738999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="BV4" s="1">
-        <v>-807.597000</v>
+        <v>-807.59699999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>37964.535751</v>
+        <v>37964.535751000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.545704</v>
+        <v>10.545704000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1577.680000</v>
+        <v>1577.68</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1046.090000</v>
+        <v>-1046.0899999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>37975.674870</v>
+        <v>37975.674870000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.548799</v>
+        <v>10.548799000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1990.470000</v>
+        <v>1990.47</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1605.510000</v>
+        <v>-1605.51</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>37804.031320</v>
+        <v>37804.031320000002</v>
       </c>
       <c r="B5" s="1">
-        <v>10.501120</v>
+        <v>10.50112</v>
       </c>
       <c r="C5" s="1">
-        <v>904.904000</v>
+        <v>904.904</v>
       </c>
       <c r="D5" s="1">
-        <v>-181.297000</v>
+        <v>-181.297</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>37814.768715</v>
+        <v>37814.768714999998</v>
       </c>
       <c r="G5" s="1">
         <v>10.504102</v>
       </c>
       <c r="H5" s="1">
-        <v>920.949000</v>
+        <v>920.94899999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-157.091000</v>
+        <v>-157.09100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>37825.225869</v>
+        <v>37825.225869000002</v>
       </c>
       <c r="L5" s="1">
         <v>10.507007</v>
       </c>
       <c r="M5" s="1">
-        <v>944.561000</v>
+        <v>944.56100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-115.948000</v>
+        <v>-115.94799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>37835.735598</v>
+        <v>37835.735597999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.509927</v>
+        <v>10.509926999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>952.188000</v>
+        <v>952.18799999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.272000</v>
+        <v>-102.27200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>37845.969589</v>
@@ -1312,375 +1728,375 @@
         <v>10.512769</v>
       </c>
       <c r="W5" s="1">
-        <v>959.708000</v>
+        <v>959.70799999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.508400</v>
+        <v>-89.508399999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>37856.440139</v>
+        <v>37856.440138999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.515678</v>
+        <v>10.515677999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>967.814000</v>
+        <v>967.81399999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.461300</v>
+        <v>-80.461299999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>37867.569828</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.518769</v>
+        <v>10.518769000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.240000</v>
+        <v>973.24</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.253900</v>
+        <v>-80.253900000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>37877.826600</v>
+        <v>37877.8266</v>
       </c>
       <c r="AK5" s="1">
         <v>10.521618</v>
       </c>
       <c r="AL5" s="1">
-        <v>981.468000</v>
+        <v>981.46799999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.979700</v>
+        <v>-87.979699999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>37888.413209</v>
+        <v>37888.413208999998</v>
       </c>
       <c r="AP5" s="1">
         <v>10.524559</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.774000</v>
+        <v>990.774</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.929000</v>
+        <v>-102.929</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>37899.836073</v>
+        <v>37899.836072999999</v>
       </c>
       <c r="AU5" s="1">
         <v>10.527732</v>
       </c>
       <c r="AV5" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.481000</v>
+        <v>-124.48099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>37910.975724</v>
+        <v>37910.975724000004</v>
       </c>
       <c r="AZ5" s="1">
         <v>10.530827</v>
       </c>
       <c r="BA5" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.262000</v>
+        <v>-143.262</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>37922.290461</v>
+        <v>37922.290460999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.533970</v>
+        <v>10.53397</v>
       </c>
       <c r="BF5" s="1">
-        <v>1056.910000</v>
+        <v>1056.9100000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.473000</v>
+        <v>-228.47300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>37933.079439</v>
+        <v>37933.079439000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.536967</v>
+        <v>10.536967000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.661000</v>
+        <v>-365.661</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>37943.930415</v>
+        <v>37943.930415000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.539981</v>
+        <v>10.539980999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.920000</v>
+        <v>1266.92</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.733000</v>
+        <v>-578.73299999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>37954.269058</v>
+        <v>37954.269057999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.542853</v>
+        <v>10.542852999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1414.820000</v>
+        <v>1414.82</v>
       </c>
       <c r="BV5" s="1">
-        <v>-807.644000</v>
+        <v>-807.64400000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>37964.973685</v>
+        <v>37964.973684999997</v>
       </c>
       <c r="BY5" s="1">
         <v>10.545826</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1577.700000</v>
+        <v>1577.7</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1046.170000</v>
+        <v>-1046.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>37976.192694</v>
+        <v>37976.192693999998</v>
       </c>
       <c r="CD5" s="1">
         <v>10.548942</v>
       </c>
       <c r="CE5" s="1">
-        <v>1991.940000</v>
+        <v>1991.94</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1605.670000</v>
+        <v>-1605.67</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>37804.712823</v>
+        <v>37804.712823000002</v>
       </c>
       <c r="B6" s="1">
-        <v>10.501309</v>
+        <v>10.501308999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>904.821000</v>
+        <v>904.82100000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-181.506000</v>
+        <v>-181.506</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>37815.111946</v>
+        <v>37815.111945999997</v>
       </c>
       <c r="G6" s="1">
-        <v>10.504198</v>
+        <v>10.504198000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>920.978000</v>
+        <v>920.97799999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-156.957000</v>
+        <v>-156.95699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>37825.570124</v>
+        <v>37825.570123999998</v>
       </c>
       <c r="L6" s="1">
-        <v>10.507103</v>
+        <v>10.507103000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>944.669000</v>
+        <v>944.66899999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-115.974000</v>
+        <v>-115.974</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>37836.085803</v>
+        <v>37836.085803000002</v>
       </c>
       <c r="Q6" s="1">
         <v>10.510024</v>
       </c>
       <c r="R6" s="1">
-        <v>952.164000</v>
+        <v>952.16399999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.264000</v>
+        <v>-102.264</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>37846.632704</v>
+        <v>37846.632704000003</v>
       </c>
       <c r="V6" s="1">
-        <v>10.512954</v>
+        <v>10.512954000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>959.733000</v>
+        <v>959.73299999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.524600</v>
+        <v>-89.524600000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>37857.100770</v>
+        <v>37857.100769999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.515861</v>
+        <v>10.515860999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>967.840000</v>
+        <v>967.84</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.538000</v>
+        <v>-80.537999999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>37867.951780</v>
+        <v>37867.951780000003</v>
       </c>
       <c r="AF6" s="1">
         <v>10.518875</v>
       </c>
       <c r="AG6" s="1">
-        <v>973.243000</v>
+        <v>973.24300000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.203300</v>
+        <v>-80.203299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>37878.175814</v>
+        <v>37878.175814000002</v>
       </c>
       <c r="AK6" s="1">
         <v>10.521716</v>
       </c>
       <c r="AL6" s="1">
-        <v>981.452000</v>
+        <v>981.452</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.002100</v>
+        <v>-88.002099999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>37888.802073</v>
+        <v>37888.802072999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.524667</v>
+        <v>10.524667000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.764000</v>
+        <v>990.76400000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.917000</v>
+        <v>-102.917</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>37900.202618</v>
+        <v>37900.202618000003</v>
       </c>
       <c r="AU6" s="1">
         <v>10.527834</v>
       </c>
       <c r="AV6" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.476000</v>
+        <v>-124.476</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>37911.357146</v>
+        <v>37911.357146000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.530933</v>
+        <v>10.530932999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.259000</v>
+        <v>-143.25899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>37922.713580</v>
+        <v>37922.713580000003</v>
       </c>
       <c r="BE6" s="1">
         <v>10.534087</v>
       </c>
       <c r="BF6" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.460000</v>
+        <v>-228.46</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>37933.435071</v>
@@ -1689,422 +2105,422 @@
         <v>10.537065</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.930000</v>
+        <v>1135.93</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.675000</v>
+        <v>-365.67500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>37944.328207</v>
+        <v>37944.328206999999</v>
       </c>
       <c r="BO6" s="1">
         <v>10.540091</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.742000</v>
+        <v>-578.74199999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>37954.680209</v>
+        <v>37954.680208999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.542967</v>
+        <v>10.542967000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1414.810000</v>
+        <v>1414.81</v>
       </c>
       <c r="BV6" s="1">
-        <v>-807.634000</v>
+        <v>-807.63400000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>37965.393326</v>
+        <v>37965.393325999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.545943</v>
+        <v>10.545942999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1577.710000</v>
+        <v>1577.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1045.980000</v>
+        <v>-1045.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>37976.710516</v>
+        <v>37976.710515999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.549086</v>
+        <v>10.549086000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1991.840000</v>
+        <v>1991.84</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1604.030000</v>
+        <v>-1604.03</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>37805.060022</v>
+        <v>37805.060021999998</v>
       </c>
       <c r="B7" s="1">
-        <v>10.501406</v>
+        <v>10.501405999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>904.831000</v>
+        <v>904.83100000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-181.538000</v>
+        <v>-181.53800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>37815.457161</v>
+        <v>37815.457160999998</v>
       </c>
       <c r="G7" s="1">
         <v>10.504294</v>
       </c>
       <c r="H7" s="1">
-        <v>921.140000</v>
+        <v>921.14</v>
       </c>
       <c r="I7" s="1">
-        <v>-156.452000</v>
+        <v>-156.452</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>37826.226298</v>
+        <v>37826.226298000001</v>
       </c>
       <c r="L7" s="1">
         <v>10.507285</v>
       </c>
       <c r="M7" s="1">
-        <v>944.561000</v>
+        <v>944.56100000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.084000</v>
+        <v>-116.084</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>37836.740493</v>
+        <v>37836.740492999998</v>
       </c>
       <c r="Q7" s="1">
         <v>10.510206</v>
       </c>
       <c r="R7" s="1">
-        <v>952.129000</v>
+        <v>952.12900000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.176000</v>
+        <v>-102.176</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>37847.007679</v>
+        <v>37847.007679000002</v>
       </c>
       <c r="V7" s="1">
-        <v>10.513058</v>
+        <v>10.513057999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>959.742000</v>
+        <v>959.74199999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.529000</v>
+        <v>-89.528999999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>37857.484177</v>
+        <v>37857.484176999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.515968</v>
+        <v>10.515968000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.943000</v>
+        <v>967.94299999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.552700</v>
+        <v>-80.552700000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>37868.293987</v>
+        <v>37868.293986999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.518971</v>
+        <v>10.518971000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>973.236000</v>
+        <v>973.23599999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.179800</v>
+        <v>-80.1798</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>37878.522487</v>
+        <v>37878.522487000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.521812</v>
+        <v>10.521812000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>981.477000</v>
+        <v>981.47699999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.004800</v>
+        <v>-88.004800000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>37889.164187</v>
+        <v>37889.164187000002</v>
       </c>
       <c r="AP7" s="1">
         <v>10.524768</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.772000</v>
+        <v>990.77200000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.911000</v>
+        <v>-102.911</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>37900.615315</v>
+        <v>37900.615315000003</v>
       </c>
       <c r="AU7" s="1">
         <v>10.527949</v>
       </c>
       <c r="AV7" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.485000</v>
+        <v>-124.485</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>37912.069899</v>
+        <v>37912.069899000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>10.531131</v>
       </c>
       <c r="BA7" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.273000</v>
+        <v>-143.273</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>37923.013168</v>
+        <v>37923.013167999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.534170</v>
+        <v>10.53417</v>
       </c>
       <c r="BF7" s="1">
-        <v>1056.880000</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.461000</v>
+        <v>-228.46100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>37933.811037</v>
+        <v>37933.811036999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.537170</v>
+        <v>10.53717</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.900000</v>
+        <v>1135.9000000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.673000</v>
+        <v>-365.673</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>37944.754275</v>
+        <v>37944.754274999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.540210</v>
+        <v>10.54021</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.729000</v>
+        <v>-578.72900000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>37955.097344</v>
+        <v>37955.097344000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.543083</v>
+        <v>10.543082999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1414.810000</v>
+        <v>1414.81</v>
       </c>
       <c r="BV7" s="1">
-        <v>-807.724000</v>
+        <v>-807.72400000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>37965.814929</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.546060</v>
+        <v>10.546060000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1577.610000</v>
+        <v>1577.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1046.090000</v>
+        <v>-1046.0899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>37977.232308</v>
+        <v>37977.232307999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.549231</v>
+        <v>10.549231000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1992.100000</v>
+        <v>1992.1</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1604.700000</v>
+        <v>-1604.7</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>37805.396312</v>
+        <v>37805.396311999997</v>
       </c>
       <c r="B8" s="1">
-        <v>10.501499</v>
+        <v>10.501499000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>904.817000</v>
+        <v>904.81700000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-181.461000</v>
+        <v>-181.46100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>37816.118858</v>
+        <v>37816.118858000002</v>
       </c>
       <c r="G8" s="1">
         <v>10.504477</v>
       </c>
       <c r="H8" s="1">
-        <v>920.683000</v>
+        <v>920.68299999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-157.141000</v>
+        <v>-157.14099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>37826.606268</v>
+        <v>37826.606268000003</v>
       </c>
       <c r="L8" s="1">
         <v>10.507391</v>
       </c>
       <c r="M8" s="1">
-        <v>944.694000</v>
+        <v>944.69399999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.037000</v>
+        <v>-116.03700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>37837.130380</v>
+        <v>37837.130380000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.510314</v>
+        <v>10.510313999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>952.180000</v>
+        <v>952.18</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>37847.352400</v>
+        <v>37847.352400000003</v>
       </c>
       <c r="V8" s="1">
-        <v>10.513153</v>
+        <v>10.513153000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>959.631000</v>
+        <v>959.63099999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.570500</v>
+        <v>-89.570499999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>37857.831377</v>
+        <v>37857.831377000002</v>
       </c>
       <c r="AA8" s="1">
         <v>10.516064</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.843000</v>
+        <v>967.84299999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.565700</v>
+        <v>-80.565700000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>37868.636756</v>
@@ -2113,118 +2529,118 @@
         <v>10.519066</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.241000</v>
+        <v>973.24099999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.197400</v>
+        <v>-80.197400000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>37878.940613</v>
+        <v>37878.940612999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.521928</v>
+        <v>10.521928000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>981.462000</v>
+        <v>981.46199999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.987600</v>
+        <v>-87.9876</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>37889.579303</v>
+        <v>37889.579302999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>10.524883</v>
+        <v>10.524883000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.746000</v>
+        <v>990.74599999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.934000</v>
+        <v>-102.934</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>37900.928761</v>
+        <v>37900.928761000003</v>
       </c>
       <c r="AU8" s="1">
         <v>10.528036</v>
       </c>
       <c r="AV8" s="1">
-        <v>1002.140000</v>
+        <v>1002.14</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.512000</v>
+        <v>-124.512</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>37912.429033</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.531230</v>
+        <v>10.531230000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1011.780000</v>
+        <v>1011.78</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.281000</v>
+        <v>-143.28100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>37923.375738</v>
+        <v>37923.375738000002</v>
       </c>
       <c r="BE8" s="1">
         <v>10.534271</v>
       </c>
       <c r="BF8" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.465000</v>
+        <v>-228.465</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>37934.186510</v>
+        <v>37934.18651</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.537274</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.900000</v>
+        <v>1135.9000000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.691000</v>
+        <v>-365.69099999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>37945.149085</v>
+        <v>37945.149084999997</v>
       </c>
       <c r="BO8" s="1">
         <v>10.540319</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.759000</v>
+        <v>-578.75900000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>37955.522417</v>
@@ -2233,13 +2649,13 @@
         <v>10.543201</v>
       </c>
       <c r="BU8" s="1">
-        <v>1414.680000</v>
+        <v>1414.68</v>
       </c>
       <c r="BV8" s="1">
-        <v>-807.658000</v>
+        <v>-807.65800000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>37966.242972</v>
@@ -2248,150 +2664,150 @@
         <v>10.546179</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1577.630000</v>
+        <v>1577.63</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1046.110000</v>
+        <v>-1046.1099999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>37977.782371</v>
+        <v>37977.782371000001</v>
       </c>
       <c r="CD8" s="1">
         <v>10.549384</v>
       </c>
       <c r="CE8" s="1">
-        <v>1991.600000</v>
+        <v>1991.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1606.360000</v>
+        <v>-1606.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>37806.171094</v>
+        <v>37806.171093999998</v>
       </c>
       <c r="B9" s="1">
         <v>10.501714</v>
       </c>
       <c r="C9" s="1">
-        <v>904.598000</v>
+        <v>904.59799999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-181.354000</v>
+        <v>-181.35400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>37816.492807</v>
+        <v>37816.492807000002</v>
       </c>
       <c r="G9" s="1">
         <v>10.504581</v>
       </c>
       <c r="H9" s="1">
-        <v>921.057000</v>
+        <v>921.05700000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-156.653000</v>
+        <v>-156.65299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>37826.953931</v>
+        <v>37826.953930999996</v>
       </c>
       <c r="L9" s="1">
-        <v>10.507487</v>
+        <v>10.507486999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>944.453000</v>
+        <v>944.45299999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.011000</v>
+        <v>-116.011</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>37837.478542</v>
+        <v>37837.478541999997</v>
       </c>
       <c r="Q9" s="1">
         <v>10.510411</v>
       </c>
       <c r="R9" s="1">
-        <v>952.160000</v>
+        <v>952.16</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>37847.695136</v>
+        <v>37847.695136000002</v>
       </c>
       <c r="V9" s="1">
         <v>10.513249</v>
       </c>
       <c r="W9" s="1">
-        <v>959.752000</v>
+        <v>959.75199999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.535900</v>
+        <v>-89.535899999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>37858.181056</v>
+        <v>37858.181056000001</v>
       </c>
       <c r="AA9" s="1">
         <v>10.516161</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.844000</v>
+        <v>967.84400000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.513300</v>
+        <v>-80.513300000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>37869.061831</v>
+        <v>37869.061830999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.519184</v>
+        <v>10.519183999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>973.212000</v>
+        <v>973.21199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.185300</v>
+        <v>-80.185299999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>37879.219862</v>
+        <v>37879.219861999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>10.522006</v>
+        <v>10.522005999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>981.491000</v>
+        <v>981.49099999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.981800</v>
+        <v>-87.981800000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>37889.880374</v>
@@ -2400,210 +2816,210 @@
         <v>10.524967</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.752000</v>
+        <v>990.75199999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>37901.295828</v>
+        <v>37901.295828000002</v>
       </c>
       <c r="AU9" s="1">
         <v>10.528138</v>
       </c>
       <c r="AV9" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.497000</v>
+        <v>-124.497</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>37912.788632</v>
+        <v>37912.788632000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.531330</v>
+        <v>10.531330000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.273000</v>
+        <v>-143.273</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>37923.734346</v>
+        <v>37923.734345999997</v>
       </c>
       <c r="BE9" s="1">
         <v>10.534371</v>
       </c>
       <c r="BF9" s="1">
-        <v>1056.870000</v>
+        <v>1056.8699999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.453000</v>
+        <v>-228.453</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>37934.958780</v>
+        <v>37934.958780000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.537489</v>
+        <v>10.537489000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.669000</v>
+        <v>-365.66899999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>37945.567214</v>
+        <v>37945.567214000002</v>
       </c>
       <c r="BO9" s="1">
         <v>10.540435</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.766000</v>
+        <v>-578.76599999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>37955.928182</v>
+        <v>37955.928182000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.543313</v>
+        <v>10.543312999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1414.690000</v>
+        <v>1414.69</v>
       </c>
       <c r="BV9" s="1">
-        <v>-807.644000</v>
+        <v>-807.64400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>37966.656113</v>
+        <v>37966.656112999997</v>
       </c>
       <c r="BY9" s="1">
         <v>10.546293</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1577.740000</v>
+        <v>1577.74</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1046.060000</v>
+        <v>-1046.06</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>37978.310644</v>
+        <v>37978.310643999997</v>
       </c>
       <c r="CD9" s="1">
         <v>10.549531</v>
       </c>
       <c r="CE9" s="1">
-        <v>1992.260000</v>
+        <v>1992.26</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1604.550000</v>
+        <v>-1604.55</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>37806.428980</v>
+        <v>37806.428979999997</v>
       </c>
       <c r="B10" s="1">
-        <v>10.501786</v>
+        <v>10.501785999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>904.771000</v>
+        <v>904.77099999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-181.355000</v>
+        <v>-181.35499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>37816.834087</v>
+        <v>37816.834087000003</v>
       </c>
       <c r="G10" s="1">
         <v>10.504676</v>
       </c>
       <c r="H10" s="1">
-        <v>921.117000</v>
+        <v>921.11699999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-156.641000</v>
+        <v>-156.64099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>37827.300669</v>
+        <v>37827.300668999997</v>
       </c>
       <c r="L10" s="1">
         <v>10.507584</v>
       </c>
       <c r="M10" s="1">
-        <v>944.698000</v>
+        <v>944.69799999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-115.919000</v>
+        <v>-115.919</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>37837.827399</v>
+        <v>37837.827399000002</v>
       </c>
       <c r="Q10" s="1">
         <v>10.510508</v>
       </c>
       <c r="R10" s="1">
-        <v>952.128000</v>
+        <v>952.12800000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.203000</v>
+        <v>-102.203</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>37848.115741</v>
+        <v>37848.115741000001</v>
       </c>
       <c r="V10" s="1">
         <v>10.513365</v>
       </c>
       <c r="W10" s="1">
-        <v>959.739000</v>
+        <v>959.73900000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.523200</v>
+        <v>-89.523200000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>37858.880416</v>
@@ -2612,133 +3028,133 @@
         <v>10.516356</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.831000</v>
+        <v>967.83100000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.528300</v>
+        <v>-80.528300000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>37869.350962</v>
+        <v>37869.350961999997</v>
       </c>
       <c r="AF10" s="1">
         <v>10.519264</v>
       </c>
       <c r="AG10" s="1">
-        <v>973.232000</v>
+        <v>973.23199999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.206400</v>
+        <v>-80.206400000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>37879.568548</v>
+        <v>37879.568548000003</v>
       </c>
       <c r="AK10" s="1">
         <v>10.522102</v>
       </c>
       <c r="AL10" s="1">
-        <v>981.449000</v>
+        <v>981.44899999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.994600</v>
+        <v>-87.994600000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>37890.243446</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.525068</v>
+        <v>10.525067999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.754000</v>
+        <v>990.75400000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.932000</v>
+        <v>-102.932</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>37901.658872</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.528239</v>
+        <v>10.528238999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1002.150000</v>
+        <v>1002.15</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.485000</v>
+        <v>-124.485</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>37913.505847</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.531529</v>
+        <v>10.531529000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.280000</v>
+        <v>-143.28</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>37924.458969</v>
+        <v>37924.458968999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.534572</v>
+        <v>10.534572000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1056.900000</v>
+        <v>1056.9000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.462000</v>
+        <v>-228.46199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>37935.334251</v>
       </c>
       <c r="BJ10" s="1">
-        <v>10.537593</v>
+        <v>10.537592999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.930000</v>
+        <v>1135.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.697000</v>
+        <v>-365.697</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>37945.965996</v>
+        <v>37945.965995999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.540546</v>
+        <v>10.540546000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.819000</v>
+        <v>-578.81899999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>37956.344287</v>
@@ -2747,634 +3163,634 @@
         <v>10.543429</v>
       </c>
       <c r="BU10" s="1">
-        <v>1414.550000</v>
+        <v>1414.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-807.636000</v>
+        <v>-807.63599999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>37967.418498</v>
+        <v>37967.418497999999</v>
       </c>
       <c r="BY10" s="1">
         <v>10.546505</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1577.580000</v>
+        <v>1577.58</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1046.210000</v>
+        <v>-1046.21</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>37979.145874</v>
+        <v>37979.145874000002</v>
       </c>
       <c r="CD10" s="1">
         <v>10.549763</v>
       </c>
       <c r="CE10" s="1">
-        <v>1991.090000</v>
+        <v>1991.09</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1606.010000</v>
+        <v>-1606.01</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>37806.771220</v>
+        <v>37806.771220000002</v>
       </c>
       <c r="B11" s="1">
-        <v>10.501881</v>
+        <v>10.501880999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>904.810000</v>
+        <v>904.81</v>
       </c>
       <c r="D11" s="1">
-        <v>-181.173000</v>
+        <v>-181.173</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>37817.180294</v>
+        <v>37817.180293999998</v>
       </c>
       <c r="G11" s="1">
-        <v>10.504772</v>
+        <v>10.504772000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>920.987000</v>
+        <v>920.98699999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-157.883000</v>
+        <v>-157.88300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>37827.726698</v>
+        <v>37827.726697999999</v>
       </c>
       <c r="L11" s="1">
         <v>10.507702</v>
       </c>
       <c r="M11" s="1">
-        <v>944.575000</v>
+        <v>944.57500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-115.941000</v>
+        <v>-115.941</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>37838.244187</v>
+        <v>37838.244186999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.510623</v>
+        <v>10.510623000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>952.142000</v>
+        <v>952.14200000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>37848.394990</v>
+        <v>37848.394990000001</v>
       </c>
       <c r="V11" s="1">
-        <v>10.513443</v>
+        <v>10.513443000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>959.692000</v>
+        <v>959.69200000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.520000</v>
+        <v>-89.52</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>37859.228607</v>
+        <v>37859.228606999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.516452</v>
+        <v>10.516451999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.948000</v>
+        <v>967.94799999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.562000</v>
+        <v>-80.561999999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>37869.694195</v>
+        <v>37869.694194999996</v>
       </c>
       <c r="AF11" s="1">
         <v>10.519359</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.238000</v>
+        <v>973.23800000000006</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.192100</v>
+        <v>-80.192099999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>37879.919715</v>
+        <v>37879.919715000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.522200</v>
+        <v>10.5222</v>
       </c>
       <c r="AL11" s="1">
-        <v>981.452000</v>
+        <v>981.452</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.008900</v>
+        <v>-88.008899999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>37890.602053</v>
+        <v>37890.602053000002</v>
       </c>
       <c r="AP11" s="1">
         <v>10.525167</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.922000</v>
+        <v>-102.922</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>37902.389478</v>
+        <v>37902.389477999997</v>
       </c>
       <c r="AU11" s="1">
         <v>10.528442</v>
       </c>
       <c r="AV11" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.491000</v>
+        <v>-124.491</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>37913.865911</v>
+        <v>37913.865911000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.531629</v>
+        <v>10.531629000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.268000</v>
+        <v>-143.268</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>37924.848330</v>
+        <v>37924.848330000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.534680</v>
+        <v>10.53468</v>
       </c>
       <c r="BF11" s="1">
-        <v>1056.870000</v>
+        <v>1056.8699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.474000</v>
+        <v>-228.47399999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>37935.710746</v>
+        <v>37935.710745999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>10.537697</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.900000</v>
+        <v>1135.9000000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.714000</v>
+        <v>-365.714</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>37946.387597</v>
+        <v>37946.387597000001</v>
       </c>
       <c r="BO11" s="1">
         <v>10.540663</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.930000</v>
+        <v>1266.93</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.718000</v>
+        <v>-578.71799999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>37957.074399</v>
+        <v>37957.074398999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.543632</v>
+        <v>10.543632000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1414.610000</v>
+        <v>1414.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-807.519000</v>
+        <v>-807.51900000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>37967.560360</v>
+        <v>37967.560360000003</v>
       </c>
       <c r="BY11" s="1">
         <v>10.546545</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1577.630000</v>
+        <v>1577.63</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1046.160000</v>
+        <v>-1046.1600000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>37979.368577</v>
+        <v>37979.368577000001</v>
       </c>
       <c r="CD11" s="1">
         <v>10.549825</v>
       </c>
       <c r="CE11" s="1">
-        <v>1991.090000</v>
+        <v>1991.09</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1606.080000</v>
+        <v>-1606.08</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>37807.188853</v>
       </c>
       <c r="B12" s="1">
-        <v>10.501997</v>
+        <v>10.501996999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>904.820000</v>
+        <v>904.82</v>
       </c>
       <c r="D12" s="1">
-        <v>-181.271000</v>
+        <v>-181.27099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>37817.597398</v>
+        <v>37817.597397999998</v>
       </c>
       <c r="G12" s="1">
-        <v>10.504888</v>
+        <v>10.504887999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.384000</v>
+        <v>920.38400000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-156.885000</v>
+        <v>-156.88499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>37828.003992</v>
+        <v>37828.003991999998</v>
       </c>
       <c r="L12" s="1">
-        <v>10.507779</v>
+        <v>10.507778999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>944.477000</v>
+        <v>944.47699999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-115.776000</v>
+        <v>-115.776</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>37838.530060</v>
+        <v>37838.530059999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.510703</v>
+        <v>10.510702999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>952.118000</v>
+        <v>952.11800000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.190000</v>
+        <v>-102.19</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>37848.737726</v>
+        <v>37848.737725999999</v>
       </c>
       <c r="V12" s="1">
         <v>10.513538</v>
       </c>
       <c r="W12" s="1">
-        <v>959.717000</v>
+        <v>959.71699999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.534500</v>
+        <v>-89.534499999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>37859.576304</v>
+        <v>37859.576304000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.516549</v>
+        <v>10.516548999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>967.860000</v>
+        <v>967.86</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.485200</v>
+        <v>-80.485200000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>37870.039440</v>
+        <v>37870.03944</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.519455</v>
+        <v>10.519455000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>973.241000</v>
+        <v>973.24099999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.191400</v>
+        <v>-80.191400000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>37880.613650</v>
+        <v>37880.613649999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.522393</v>
+        <v>10.522392999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>981.470000</v>
+        <v>981.47</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.003300</v>
+        <v>-88.003299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>37891.320261</v>
+        <v>37891.320261000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.525367</v>
+        <v>10.525366999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.750000</v>
+        <v>990.75</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.944000</v>
+        <v>-102.944</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>37902.783799</v>
+        <v>37902.783798999997</v>
       </c>
       <c r="AU12" s="1">
         <v>10.528551</v>
       </c>
       <c r="AV12" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.479000</v>
+        <v>-124.479</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>37914.224055</v>
+        <v>37914.224054999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>10.531729</v>
       </c>
       <c r="BA12" s="1">
-        <v>1011.790000</v>
+        <v>1011.79</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.277000</v>
+        <v>-143.27699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>37925.208921</v>
+        <v>37925.208920999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.534780</v>
+        <v>10.53478</v>
       </c>
       <c r="BF12" s="1">
-        <v>1056.890000</v>
+        <v>1056.8900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.461000</v>
+        <v>-228.46100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>37936.396185</v>
+        <v>37936.396184999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.537888</v>
+        <v>10.537888000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.683000</v>
+        <v>-365.68299999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>37946.836475</v>
+        <v>37946.836474999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.540788</v>
+        <v>10.540787999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.748000</v>
+        <v>-578.74800000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>37957.192942</v>
+        <v>37957.192942000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.543665</v>
+        <v>10.543665000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1414.500000</v>
+        <v>1414.5</v>
       </c>
       <c r="BV12" s="1">
-        <v>-807.596000</v>
+        <v>-807.596</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>37967.982754</v>
+        <v>37967.982753999997</v>
       </c>
       <c r="BY12" s="1">
         <v>10.546662</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1577.670000</v>
+        <v>1577.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1046.290000</v>
+        <v>-1046.29</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>37979.889377</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.549969</v>
+        <v>10.549969000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1991.780000</v>
+        <v>1991.78</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1605.080000</v>
+        <v>-1605.08</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>37807.471112</v>
+        <v>37807.471111999999</v>
       </c>
       <c r="B13" s="1">
         <v>10.502075</v>
       </c>
       <c r="C13" s="1">
-        <v>904.704000</v>
+        <v>904.70399999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-181.316000</v>
+        <v>-181.316</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>37817.893013</v>
+        <v>37817.893013000001</v>
       </c>
       <c r="G13" s="1">
-        <v>10.504970</v>
+        <v>10.50497</v>
       </c>
       <c r="H13" s="1">
-        <v>920.901000</v>
+        <v>920.90099999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-156.848000</v>
+        <v>-156.84800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>37828.348218</v>
+        <v>37828.348217999999</v>
       </c>
       <c r="L13" s="1">
         <v>10.507875</v>
       </c>
       <c r="M13" s="1">
-        <v>944.591000</v>
+        <v>944.59100000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-115.735000</v>
+        <v>-115.735</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>37838.879243</v>
+        <v>37838.879243000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.510800</v>
+        <v>10.5108</v>
       </c>
       <c r="R13" s="1">
-        <v>952.136000</v>
+        <v>952.13599999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.192000</v>
+        <v>-102.19199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>37849.081454</v>
+        <v>37849.081453999999</v>
       </c>
       <c r="V13" s="1">
         <v>10.513634</v>
       </c>
       <c r="W13" s="1">
-        <v>959.744000</v>
+        <v>959.74400000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.517700</v>
+        <v>-89.517700000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>37860.273213</v>
@@ -3383,300 +3799,300 @@
         <v>10.516743</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.879000</v>
+        <v>967.87900000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.563600</v>
+        <v>-80.563599999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>37870.725873</v>
+        <v>37870.725873000003</v>
       </c>
       <c r="AF13" s="1">
         <v>10.519646</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.227000</v>
+        <v>973.22699999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.226500</v>
+        <v>-80.226500000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>37880.959826</v>
+        <v>37880.959825999998</v>
       </c>
       <c r="AK13" s="1">
         <v>10.522489</v>
       </c>
       <c r="AL13" s="1">
-        <v>981.458000</v>
+        <v>981.45799999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.010000</v>
+        <v>-88.01</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>37891.684852</v>
+        <v>37891.684851999999</v>
       </c>
       <c r="AP13" s="1">
         <v>10.525468</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.764000</v>
+        <v>990.76400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.925000</v>
+        <v>-102.925</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>37903.147473</v>
+        <v>37903.147472999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.528652</v>
+        <v>10.528651999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1002.150000</v>
+        <v>1002.15</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.486000</v>
+        <v>-124.486</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>37914.893653</v>
+        <v>37914.893652999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>10.531915</v>
       </c>
       <c r="BA13" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.259000</v>
+        <v>-143.25899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>37925.889431</v>
+        <v>37925.889431000003</v>
       </c>
       <c r="BE13" s="1">
         <v>10.534969</v>
       </c>
       <c r="BF13" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.446000</v>
+        <v>-228.446</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>37936.507320</v>
+        <v>37936.507319999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.537919</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.670000</v>
+        <v>-365.67</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>37947.204539</v>
+        <v>37947.204538999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.540890</v>
+        <v>10.540889999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.818000</v>
+        <v>-578.81799999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>37957.608589</v>
+        <v>37957.608589000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.543780</v>
+        <v>10.54378</v>
       </c>
       <c r="BU13" s="1">
-        <v>1414.400000</v>
+        <v>1414.4</v>
       </c>
       <c r="BV13" s="1">
-        <v>-807.535000</v>
+        <v>-807.53499999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>37968.403520</v>
+        <v>37968.40352</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.546779</v>
+        <v>10.546779000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1577.700000</v>
+        <v>1577.7</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1046.100000</v>
+        <v>-1046.0999999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>37980.407696</v>
+        <v>37980.407696000002</v>
       </c>
       <c r="CD13" s="1">
         <v>10.550113</v>
       </c>
       <c r="CE13" s="1">
-        <v>1990.730000</v>
+        <v>1990.73</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1604.110000</v>
+        <v>-1604.11</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>37807.814803</v>
+        <v>37807.814803000001</v>
       </c>
       <c r="B14" s="1">
-        <v>10.502171</v>
+        <v>10.502171000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>904.807000</v>
+        <v>904.80700000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-181.413000</v>
+        <v>-181.41300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>37818.237734</v>
+        <v>37818.237734000002</v>
       </c>
       <c r="G14" s="1">
-        <v>10.505066</v>
+        <v>10.505065999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.498000</v>
+        <v>920.49800000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-157.163000</v>
+        <v>-157.16300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>37828.693431</v>
       </c>
       <c r="L14" s="1">
-        <v>10.507970</v>
+        <v>10.50797</v>
       </c>
       <c r="M14" s="1">
-        <v>944.547000</v>
+        <v>944.54700000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.216000</v>
+        <v>-116.21599999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>37839.230905</v>
+        <v>37839.230904999997</v>
       </c>
       <c r="Q14" s="1">
         <v>10.510897</v>
       </c>
       <c r="R14" s="1">
-        <v>952.163000</v>
+        <v>952.16300000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.198000</v>
+        <v>-102.19799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>37849.767419</v>
+        <v>37849.767419000003</v>
       </c>
       <c r="V14" s="1">
         <v>10.513824</v>
       </c>
       <c r="W14" s="1">
-        <v>959.631000</v>
+        <v>959.63099999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.633500</v>
+        <v>-89.633499999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>37860.622414</v>
+        <v>37860.622413999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.516840</v>
+        <v>10.51684</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.879000</v>
+        <v>967.87900000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.532000</v>
+        <v>-80.531999999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>37871.067617</v>
+        <v>37871.067617000001</v>
       </c>
       <c r="AF14" s="1">
         <v>10.519741</v>
       </c>
       <c r="AG14" s="1">
-        <v>973.251000</v>
+        <v>973.25099999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.241800</v>
+        <v>-80.241799999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>37881.312514</v>
+        <v>37881.312513999997</v>
       </c>
       <c r="AK14" s="1">
         <v>10.522587</v>
       </c>
       <c r="AL14" s="1">
-        <v>981.456000</v>
+        <v>981.45600000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.983400</v>
+        <v>-87.983400000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>37892.045909</v>
@@ -3685,240 +4101,240 @@
         <v>10.525568</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.750000</v>
+        <v>990.75</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.941000</v>
+        <v>-102.941</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>37903.810020</v>
+        <v>37903.810019999997</v>
       </c>
       <c r="AU14" s="1">
         <v>10.528836</v>
       </c>
       <c r="AV14" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.487000</v>
+        <v>-124.48699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>37915.336088</v>
+        <v>37915.336087999996</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.532038</v>
       </c>
       <c r="BA14" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.274000</v>
+        <v>-143.274</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>37926.320490</v>
+        <v>37926.320489999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.535089</v>
+        <v>10.535088999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.477000</v>
+        <v>-228.477</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>37936.863447</v>
+        <v>37936.863447000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.538018</v>
+        <v>10.538017999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.687000</v>
+        <v>-365.68700000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>37947.602795</v>
+        <v>37947.602794999999</v>
       </c>
       <c r="BO14" s="1">
         <v>10.541001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.920000</v>
+        <v>1266.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.784000</v>
+        <v>-578.78399999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>37958.037628</v>
+        <v>37958.037627999998</v>
       </c>
       <c r="BT14" s="1">
         <v>10.543899</v>
       </c>
       <c r="BU14" s="1">
-        <v>1414.500000</v>
+        <v>1414.5</v>
       </c>
       <c r="BV14" s="1">
-        <v>-807.466000</v>
+        <v>-807.46600000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>37968.840494</v>
+        <v>37968.840493999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.546900</v>
+        <v>10.546900000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1577.680000</v>
+        <v>1577.68</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1046.200000</v>
+        <v>-1046.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>37980.926510</v>
+        <v>37980.926509999998</v>
       </c>
       <c r="CD14" s="1">
         <v>10.550257</v>
       </c>
       <c r="CE14" s="1">
-        <v>1990.020000</v>
+        <v>1990.02</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1605.320000</v>
+        <v>-1605.32</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>37808.153106</v>
+        <v>37808.153105999998</v>
       </c>
       <c r="B15" s="1">
         <v>10.502265</v>
       </c>
       <c r="C15" s="1">
-        <v>904.796000</v>
+        <v>904.79600000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-181.473000</v>
+        <v>-181.47300000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>37818.579258</v>
+        <v>37818.579257999998</v>
       </c>
       <c r="G15" s="1">
-        <v>10.505161</v>
+        <v>10.505160999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>921.123000</v>
+        <v>921.12300000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-156.887000</v>
+        <v>-156.887</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>37829.386310</v>
+        <v>37829.386310000002</v>
       </c>
       <c r="L15" s="1">
         <v>10.508163</v>
       </c>
       <c r="M15" s="1">
-        <v>944.427000</v>
+        <v>944.42700000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-115.896000</v>
+        <v>-115.896</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>37839.927288</v>
+        <v>37839.927287999999</v>
       </c>
       <c r="Q15" s="1">
         <v>10.511091</v>
       </c>
       <c r="R15" s="1">
-        <v>952.201000</v>
+        <v>952.20100000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>37850.112636</v>
+        <v>37850.112635999998</v>
       </c>
       <c r="V15" s="1">
-        <v>10.513920</v>
+        <v>10.513920000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>959.671000</v>
+        <v>959.67100000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.566600</v>
+        <v>-89.566599999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>37860.969564</v>
+        <v>37860.969563999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.516936</v>
+        <v>10.516935999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>967.911000</v>
+        <v>967.91099999999994</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.417900</v>
+        <v>-80.417900000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>37871.413358</v>
+        <v>37871.413357999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.519837</v>
+        <v>10.519837000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.261000</v>
+        <v>973.26099999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.242200</v>
+        <v>-80.242199999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>37881.961249</v>
@@ -3927,285 +4343,285 @@
         <v>10.522767</v>
       </c>
       <c r="AL15" s="1">
-        <v>981.436000</v>
+        <v>981.43600000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.987900</v>
+        <v>-87.987899999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>37892.707606</v>
+        <v>37892.707606000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.525752</v>
+        <v>10.525752000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.916000</v>
+        <v>-102.916</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>37904.273316</v>
+        <v>37904.273315999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.528965</v>
+        <v>10.528964999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>37915.690233</v>
+        <v>37915.690233000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.532136</v>
+        <v>10.532135999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.289000</v>
+        <v>-143.28899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>37926.683031</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.535190</v>
+        <v>10.53519</v>
       </c>
       <c r="BF15" s="1">
-        <v>1056.890000</v>
+        <v>1056.8900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.455000</v>
+        <v>-228.45500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>37937.237400</v>
+        <v>37937.237399999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.538122</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.880000</v>
+        <v>1135.8800000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.678000</v>
+        <v>-365.678</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>37948.028363</v>
+        <v>37948.028362999998</v>
       </c>
       <c r="BO15" s="1">
         <v>10.541119</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.765000</v>
+        <v>-578.76499999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>37958.460716</v>
+        <v>37958.460716000001</v>
       </c>
       <c r="BT15" s="1">
         <v>10.544017</v>
       </c>
       <c r="BU15" s="1">
-        <v>1414.370000</v>
+        <v>1414.37</v>
       </c>
       <c r="BV15" s="1">
-        <v>-807.451000</v>
+        <v>-807.45100000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>37969.274028</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.547021</v>
+        <v>10.547021000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1577.660000</v>
+        <v>1577.66</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1046.150000</v>
+        <v>-1046.1500000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>37981.442845</v>
+        <v>37981.442844999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.550401</v>
+        <v>10.550401000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1989.790000</v>
+        <v>1989.79</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1604.670000</v>
+        <v>-1604.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>37808.836102</v>
+        <v>37808.836102000001</v>
       </c>
       <c r="B16" s="1">
         <v>10.502454</v>
       </c>
       <c r="C16" s="1">
-        <v>904.674000</v>
+        <v>904.67399999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-181.746000</v>
+        <v>-181.74600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>37819.270405</v>
+        <v>37819.270405000003</v>
       </c>
       <c r="G16" s="1">
-        <v>10.505353</v>
+        <v>10.505352999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>920.907000</v>
+        <v>920.90700000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-157.122000</v>
+        <v>-157.12200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>37829.731032</v>
+        <v>37829.731032000003</v>
       </c>
       <c r="L16" s="1">
-        <v>10.508259</v>
+        <v>10.508259000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>944.628000</v>
+        <v>944.62800000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.035000</v>
+        <v>-116.035</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>37840.273001</v>
+        <v>37840.273001000001</v>
       </c>
       <c r="Q16" s="1">
         <v>10.511187</v>
       </c>
       <c r="R16" s="1">
-        <v>952.170000</v>
+        <v>952.17</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.293000</v>
+        <v>-102.29300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>37850.454875</v>
+        <v>37850.454875000003</v>
       </c>
       <c r="V16" s="1">
-        <v>10.514015</v>
+        <v>10.514015000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>959.697000</v>
+        <v>959.697</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.544800</v>
+        <v>-89.544799999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>37861.628747</v>
+        <v>37861.628747000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.517119</v>
+        <v>10.517118999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>967.896000</v>
+        <v>967.89599999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.601700</v>
+        <v>-80.601699999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>37872.059616</v>
+        <v>37872.059615999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.520017</v>
+        <v>10.520016999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.224000</v>
+        <v>973.22400000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.241800</v>
+        <v>-80.241799999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>37882.356065</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.522877</v>
+        <v>10.522876999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>981.443000</v>
+        <v>981.44299999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.983100</v>
+        <v>-87.983099999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>37893.163931</v>
+        <v>37893.163931000003</v>
       </c>
       <c r="AP16" s="1">
         <v>10.525879</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.776000</v>
+        <v>990.77599999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>37904.639829</v>
@@ -4214,150 +4630,150 @@
         <v>10.529067</v>
       </c>
       <c r="AV16" s="1">
-        <v>1002.150000</v>
+        <v>1002.15</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.478000</v>
+        <v>-124.47799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>37916.052276</v>
+        <v>37916.052276000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.532237</v>
       </c>
       <c r="BA16" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.260000</v>
+        <v>-143.26</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>37927.045109</v>
+        <v>37927.045108999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.535290</v>
+        <v>10.53529</v>
       </c>
       <c r="BF16" s="1">
-        <v>1056.870000</v>
+        <v>1056.8699999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.467000</v>
+        <v>-228.46700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>37937.656532</v>
+        <v>37937.656532000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.538238</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.686000</v>
+        <v>-365.68599999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>37948.420730</v>
+        <v>37948.420729999998</v>
       </c>
       <c r="BO16" s="1">
         <v>10.541228</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.880000</v>
+        <v>1266.8800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.786000</v>
+        <v>-578.78599999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>37958.877882</v>
+        <v>37958.877882000001</v>
       </c>
       <c r="BT16" s="1">
         <v>10.544133</v>
       </c>
       <c r="BU16" s="1">
-        <v>1414.400000</v>
+        <v>1414.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-807.397000</v>
+        <v>-807.39700000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>37969.692659</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.547137</v>
+        <v>10.547136999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1577.720000</v>
+        <v>1577.72</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1046.130000</v>
+        <v>-1046.1300000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>37981.993404</v>
+        <v>37981.993404000001</v>
       </c>
       <c r="CD16" s="1">
         <v>10.550554</v>
       </c>
       <c r="CE16" s="1">
-        <v>1991.280000</v>
+        <v>1991.28</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1604.280000</v>
+        <v>-1604.28</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>37809.178842</v>
+        <v>37809.178842000001</v>
       </c>
       <c r="B17" s="1">
-        <v>10.502550</v>
+        <v>10.502549999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>904.828000</v>
+        <v>904.82799999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-181.420000</v>
+        <v>-181.42</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>37819.614133</v>
+        <v>37819.614133000003</v>
       </c>
       <c r="G17" s="1">
-        <v>10.505448</v>
+        <v>10.505447999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>920.776000</v>
+        <v>920.77599999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-156.994000</v>
+        <v>-156.994</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>37830.078727</v>
@@ -4366,13 +4782,13 @@
         <v>10.508355</v>
       </c>
       <c r="M17" s="1">
-        <v>944.492000</v>
+        <v>944.49199999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.006000</v>
+        <v>-116.006</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>37840.628633</v>
@@ -4381,193 +4797,193 @@
         <v>10.511286</v>
       </c>
       <c r="R17" s="1">
-        <v>952.160000</v>
+        <v>952.16</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.263000</v>
+        <v>-102.26300000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>37851.107609</v>
+        <v>37851.107608999999</v>
       </c>
       <c r="V17" s="1">
-        <v>10.514197</v>
+        <v>10.514196999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>959.732000</v>
+        <v>959.73199999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.575200</v>
+        <v>-89.575199999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>37862.017116</v>
+        <v>37862.017116000003</v>
       </c>
       <c r="AA17" s="1">
         <v>10.517227</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.763000</v>
+        <v>967.76300000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.594000</v>
+        <v>-80.593999999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>37872.442526</v>
+        <v>37872.442525999999</v>
       </c>
       <c r="AF17" s="1">
         <v>10.520123</v>
       </c>
       <c r="AG17" s="1">
-        <v>973.220000</v>
+        <v>973.22</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.236400</v>
+        <v>-80.236400000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>37882.706892</v>
+        <v>37882.706892000002</v>
       </c>
       <c r="AK17" s="1">
         <v>10.522974</v>
       </c>
       <c r="AL17" s="1">
-        <v>981.461000</v>
+        <v>981.46100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.004400</v>
+        <v>-88.004400000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>37893.516547</v>
+        <v>37893.516546999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.525977</v>
+        <v>10.525976999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.752000</v>
+        <v>990.75199999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.941000</v>
+        <v>-102.941</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>37905.002898</v>
+        <v>37905.002897999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.529167</v>
+        <v>10.529166999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1002.150000</v>
+        <v>1002.15</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.477000</v>
+        <v>-124.477</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>37916.478376</v>
+        <v>37916.478375999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.532355</v>
+        <v>10.532355000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.267000</v>
+        <v>-143.267</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>37927.474150</v>
+        <v>37927.474150000002</v>
       </c>
       <c r="BE17" s="1">
         <v>10.535409</v>
       </c>
       <c r="BF17" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.468000</v>
+        <v>-228.46799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>37937.991352</v>
+        <v>37937.991351999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>10.538331</v>
+        <v>10.538330999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.660000</v>
+        <v>-365.66</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>37948.841304</v>
+        <v>37948.841304000001</v>
       </c>
       <c r="BO17" s="1">
         <v>10.541345</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.809000</v>
+        <v>-578.80899999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>37959.305899</v>
+        <v>37959.305898999999</v>
       </c>
       <c r="BT17" s="1">
         <v>10.544252</v>
       </c>
       <c r="BU17" s="1">
-        <v>1414.330000</v>
+        <v>1414.33</v>
       </c>
       <c r="BV17" s="1">
-        <v>-807.307000</v>
+        <v>-807.30700000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>37970.116701</v>
+        <v>37970.116700999999</v>
       </c>
       <c r="BY17" s="1">
         <v>10.547255</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1577.720000</v>
+        <v>1577.72</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1046.030000</v>
+        <v>-1046.03</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>37982.524652</v>
@@ -4576,90 +4992,90 @@
         <v>10.550701</v>
       </c>
       <c r="CE17" s="1">
-        <v>1990.170000</v>
+        <v>1990.17</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1605.080000</v>
+        <v>-1605.08</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>37809.520049</v>
+        <v>37809.520048999999</v>
       </c>
       <c r="B18" s="1">
         <v>10.502644</v>
       </c>
       <c r="C18" s="1">
-        <v>904.719000</v>
+        <v>904.71900000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-181.993000</v>
+        <v>-181.99299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>37819.957364</v>
+        <v>37819.957364000002</v>
       </c>
       <c r="G18" s="1">
         <v>10.505544</v>
       </c>
       <c r="H18" s="1">
-        <v>920.907000</v>
+        <v>920.90700000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-157.115000</v>
+        <v>-157.11500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>37830.735926</v>
+        <v>37830.735926000001</v>
       </c>
       <c r="L18" s="1">
         <v>10.508538</v>
       </c>
       <c r="M18" s="1">
-        <v>944.361000</v>
+        <v>944.36099999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-115.941000</v>
+        <v>-115.941</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>37841.101320</v>
+        <v>37841.101320000002</v>
       </c>
       <c r="Q18" s="1">
         <v>10.511417</v>
       </c>
       <c r="R18" s="1">
-        <v>952.154000</v>
+        <v>952.154</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.239000</v>
+        <v>-102.239</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>37851.486554</v>
+        <v>37851.486554000003</v>
       </c>
       <c r="V18" s="1">
-        <v>10.514302</v>
+        <v>10.514302000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>959.621000</v>
+        <v>959.62099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.533500</v>
+        <v>-89.533500000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>37862.365307</v>
@@ -4668,163 +5084,163 @@
         <v>10.517324</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.879000</v>
+        <v>967.87900000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.502100</v>
+        <v>-80.502099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>37872.784270</v>
+        <v>37872.784269999996</v>
       </c>
       <c r="AF18" s="1">
         <v>10.520218</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.233000</v>
+        <v>973.23299999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.196200</v>
+        <v>-80.196200000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>37883.055952</v>
+        <v>37883.055952000002</v>
       </c>
       <c r="AK18" s="1">
         <v>10.523071</v>
       </c>
       <c r="AL18" s="1">
-        <v>981.445000</v>
+        <v>981.44500000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.012500</v>
+        <v>-88.012500000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>37894.209963</v>
+        <v>37894.209963000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.526169</v>
+        <v>10.526168999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.759000</v>
+        <v>990.75900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.922000</v>
+        <v>-102.922</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>37905.430946</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.529286</v>
+        <v>10.529286000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.482000</v>
+        <v>-124.482</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>37916.768996</v>
+        <v>37916.768995999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.532436</v>
+        <v>10.532436000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.290000</v>
+        <v>-143.29</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>37927.766820</v>
+        <v>37927.766819999997</v>
       </c>
       <c r="BE18" s="1">
         <v>10.535491</v>
       </c>
       <c r="BF18" s="1">
-        <v>1056.880000</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.449000</v>
+        <v>-228.44900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>37938.389142</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.538441</v>
+        <v>10.538441000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.890000</v>
+        <v>1135.8900000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.697000</v>
+        <v>-365.697</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>37949.238137</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.541455</v>
+        <v>10.541454999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.776000</v>
+        <v>-578.77599999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>37959.721050</v>
+        <v>37959.72105</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.544367</v>
+        <v>10.544366999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1414.430000</v>
+        <v>1414.43</v>
       </c>
       <c r="BV18" s="1">
-        <v>-807.219000</v>
+        <v>-807.21900000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>37970.539292</v>
+        <v>37970.539292000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.547372</v>
+        <v>10.547371999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1577.610000</v>
+        <v>1577.61</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1046.060000</v>
+        <v>-1046.06</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>37983.043932</v>
@@ -4833,302 +5249,302 @@
         <v>10.550846</v>
       </c>
       <c r="CE18" s="1">
-        <v>1991.160000</v>
+        <v>1991.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1605.860000</v>
+        <v>-1605.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>37810.174769</v>
+        <v>37810.174768999997</v>
       </c>
       <c r="B19" s="1">
-        <v>10.502826</v>
+        <v>10.502826000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>904.586000</v>
+        <v>904.58600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-181.600000</v>
+        <v>-181.6</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>37820.602189</v>
+        <v>37820.602188999997</v>
       </c>
       <c r="G19" s="1">
         <v>10.505723</v>
       </c>
       <c r="H19" s="1">
-        <v>920.914000</v>
+        <v>920.91399999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-157.163000</v>
+        <v>-157.16300000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>37831.113380</v>
+        <v>37831.113380000003</v>
       </c>
       <c r="L19" s="1">
-        <v>10.508643</v>
+        <v>10.508642999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>944.791000</v>
+        <v>944.79100000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.142000</v>
+        <v>-116.142</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>37841.364235</v>
+        <v>37841.364235000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.511490</v>
+        <v>10.51149</v>
       </c>
       <c r="R19" s="1">
-        <v>952.157000</v>
+        <v>952.15700000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.147000</v>
+        <v>-102.14700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>37851.829785</v>
+        <v>37851.829785000002</v>
       </c>
       <c r="V19" s="1">
-        <v>10.514397</v>
+        <v>10.514397000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>959.801000</v>
+        <v>959.80100000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.600100</v>
+        <v>-89.600099999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>37862.710522</v>
+        <v>37862.710522000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>10.517420</v>
+        <v>10.51742</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.853000</v>
+        <v>967.85299999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.486600</v>
+        <v>-80.486599999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>37873.129516</v>
+        <v>37873.129516000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.520314</v>
+        <v>10.520314000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.217000</v>
+        <v>973.21699999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.211900</v>
+        <v>-80.2119</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>37883.471071</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.523186</v>
+        <v>10.523186000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>981.451000</v>
+        <v>981.45100000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.988500</v>
+        <v>-87.988500000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>37894.621633</v>
+        <v>37894.621633000002</v>
       </c>
       <c r="AP19" s="1">
         <v>10.526284</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.755000</v>
+        <v>990.755</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.914000</v>
+        <v>-102.914</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>37905.734003</v>
+        <v>37905.734002999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.529371</v>
+        <v>10.529370999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1002.180000</v>
+        <v>1002.18</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.486000</v>
+        <v>-124.486</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>37917.129090</v>
+        <v>37917.129090000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.532536</v>
       </c>
       <c r="BA19" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.286000</v>
+        <v>-143.286</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>37928.126389</v>
+        <v>37928.126388999997</v>
       </c>
       <c r="BE19" s="1">
         <v>10.535591</v>
       </c>
       <c r="BF19" s="1">
-        <v>1056.870000</v>
+        <v>1056.8699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.477000</v>
+        <v>-228.477</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>37938.763094</v>
+        <v>37938.763094000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.538545</v>
+        <v>10.538544999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.890000</v>
+        <v>1135.8900000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.703000</v>
+        <v>-365.70299999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>37949.657721</v>
+        <v>37949.657721000003</v>
       </c>
       <c r="BO19" s="1">
         <v>10.541572</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.789000</v>
+        <v>-578.78899999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>37960.154588</v>
+        <v>37960.154587999998</v>
       </c>
       <c r="BT19" s="1">
         <v>10.544487</v>
       </c>
       <c r="BU19" s="1">
-        <v>1414.420000</v>
+        <v>1414.42</v>
       </c>
       <c r="BV19" s="1">
-        <v>-807.111000</v>
+        <v>-807.11099999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>37970.955965</v>
+        <v>37970.955965000001</v>
       </c>
       <c r="BY19" s="1">
         <v>10.547488</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1577.750000</v>
+        <v>1577.75</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1046.190000</v>
+        <v>-1046.19</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>37983.562746</v>
+        <v>37983.562746000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.550990</v>
+        <v>10.550990000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1992.140000</v>
+        <v>1992.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1604.760000</v>
+        <v>-1604.76</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>37810.546769</v>
       </c>
       <c r="B20" s="1">
-        <v>10.502930</v>
+        <v>10.502929999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>904.765000</v>
+        <v>904.76499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-181.735000</v>
+        <v>-181.73500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>37820.992017</v>
+        <v>37820.992016999997</v>
       </c>
       <c r="G20" s="1">
-        <v>10.505831</v>
+        <v>10.505831000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.988000</v>
+        <v>920.98800000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>-157.053000</v>
+        <v>-157.053</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>37831.460582</v>
@@ -5137,270 +5553,270 @@
         <v>10.508739</v>
       </c>
       <c r="M20" s="1">
-        <v>944.501000</v>
+        <v>944.50099999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.105000</v>
+        <v>-116.105</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>37841.702471</v>
+        <v>37841.702470999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.511584</v>
+        <v>10.511583999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>952.141000</v>
+        <v>952.14099999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>37852.178504</v>
+        <v>37852.178504000003</v>
       </c>
       <c r="V20" s="1">
-        <v>10.514494</v>
+        <v>10.514493999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>959.740000</v>
+        <v>959.74</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.558800</v>
+        <v>-89.558800000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>37863.127193</v>
       </c>
       <c r="AA20" s="1">
-        <v>10.517535</v>
+        <v>10.517535000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.840000</v>
+        <v>967.84</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.553200</v>
+        <v>-80.553200000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>37873.547116</v>
+        <v>37873.547116000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>10.520430</v>
+        <v>10.520429999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>973.221000</v>
+        <v>973.221</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.254400</v>
+        <v>-80.254400000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>37883.762753</v>
+        <v>37883.762753000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.523267</v>
+        <v>10.523267000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>981.440000</v>
+        <v>981.44</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.970000</v>
+        <v>-87.97</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>37894.982256</v>
+        <v>37894.982256000003</v>
       </c>
       <c r="AP20" s="1">
         <v>10.526384</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.743000</v>
+        <v>990.74300000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.918000</v>
+        <v>-102.91800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>37906.096113</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.529471</v>
+        <v>10.529470999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1002.150000</v>
+        <v>1002.15</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>37917.487207</v>
+        <v>37917.487206999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.532635</v>
+        <v>10.532635000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1011.780000</v>
+        <v>1011.78</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.262000</v>
+        <v>-143.262</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>37929.030100</v>
+        <v>37929.030100000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.535842</v>
+        <v>10.535842000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1056.870000</v>
+        <v>1056.8699999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.447000</v>
+        <v>-228.447</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>37939.515029</v>
+        <v>37939.515029000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.538754</v>
+        <v>10.538754000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.681000</v>
+        <v>-365.68099999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>37950.067911</v>
+        <v>37950.067910999998</v>
       </c>
       <c r="BO20" s="1">
         <v>10.541686</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.910000</v>
+        <v>1266.9100000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.749000</v>
+        <v>-578.74900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>37960.578137</v>
+        <v>37960.578136999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.544605</v>
+        <v>10.544605000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1414.350000</v>
+        <v>1414.35</v>
       </c>
       <c r="BV20" s="1">
-        <v>-807.057000</v>
+        <v>-807.05700000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>37971.410762</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.547614</v>
+        <v>10.547613999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1577.720000</v>
+        <v>1577.72</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1046.160000</v>
+        <v>-1046.1600000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>37984.383130</v>
+        <v>37984.383130000002</v>
       </c>
       <c r="CD20" s="1">
         <v>10.551218</v>
       </c>
       <c r="CE20" s="1">
-        <v>1990.780000</v>
+        <v>1990.78</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1603.760000</v>
+        <v>-1603.76</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>37810.887518</v>
+        <v>37810.887518000003</v>
       </c>
       <c r="B21" s="1">
         <v>10.503024</v>
       </c>
       <c r="C21" s="1">
-        <v>904.645000</v>
+        <v>904.64499999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-181.957000</v>
+        <v>-181.95699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>37821.335745</v>
+        <v>37821.335744999997</v>
       </c>
       <c r="G21" s="1">
         <v>10.505927</v>
       </c>
       <c r="H21" s="1">
-        <v>920.825000</v>
+        <v>920.82500000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-156.869000</v>
+        <v>-156.869</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>37831.803347</v>
+        <v>37831.803347000001</v>
       </c>
       <c r="L21" s="1">
         <v>10.508834</v>
       </c>
       <c r="M21" s="1">
-        <v>944.780000</v>
+        <v>944.78</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.017000</v>
+        <v>-116.017</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>37842.126053</v>
@@ -5409,28 +5825,28 @@
         <v>10.511702</v>
       </c>
       <c r="R21" s="1">
-        <v>952.174000</v>
+        <v>952.17399999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.216000</v>
+        <v>-102.21599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>37852.600602</v>
+        <v>37852.600601999999</v>
       </c>
       <c r="V21" s="1">
         <v>10.514611</v>
       </c>
       <c r="W21" s="1">
-        <v>959.722000</v>
+        <v>959.72199999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.552100</v>
+        <v>-89.552099999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>37863.411902</v>
@@ -5439,148 +5855,148 @@
         <v>10.517614</v>
       </c>
       <c r="AB21" s="1">
-        <v>967.955000</v>
+        <v>967.95500000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.547300</v>
+        <v>-80.547300000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>37873.840252</v>
+        <v>37873.840252000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.520511</v>
+        <v>10.520511000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.238000</v>
+        <v>973.23800000000006</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.203600</v>
+        <v>-80.203599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>37884.109422</v>
+        <v>37884.109422000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.523364</v>
+        <v>10.523364000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>981.476000</v>
+        <v>981.476</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.979800</v>
+        <v>-87.979799999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>37895.342815</v>
+        <v>37895.342815000004</v>
       </c>
       <c r="AP21" s="1">
         <v>10.526484</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.765000</v>
+        <v>990.76499999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.907000</v>
+        <v>-102.907</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>37906.460145</v>
+        <v>37906.460144999997</v>
       </c>
       <c r="AU21" s="1">
         <v>10.529572</v>
       </c>
       <c r="AV21" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.484000</v>
+        <v>-124.48399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>37918.204947</v>
+        <v>37918.204946999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.532835</v>
       </c>
       <c r="BA21" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.272000</v>
+        <v>-143.27199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>37929.210644</v>
+        <v>37929.210643999999</v>
       </c>
       <c r="BE21" s="1">
         <v>10.535892</v>
       </c>
       <c r="BF21" s="1">
-        <v>1056.880000</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.472000</v>
+        <v>-228.47200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>37939.889012</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.538858</v>
+        <v>10.538857999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.910000</v>
+        <v>1135.9100000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.685000</v>
+        <v>-365.685</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>37950.477148</v>
+        <v>37950.477147999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.541799</v>
+        <v>10.541798999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.746000</v>
+        <v>-578.74599999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>37960.988824</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.544719</v>
+        <v>10.544719000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1414.470000</v>
+        <v>1414.47</v>
       </c>
       <c r="BV21" s="1">
-        <v>-807.063000</v>
+        <v>-807.06299999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>37972.169682</v>
@@ -5589,105 +6005,105 @@
         <v>10.547825</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1577.700000</v>
+        <v>1577.7</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1046.110000</v>
+        <v>-1046.1099999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>37984.597759</v>
+        <v>37984.597758999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.551277</v>
+        <v>10.551277000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1989.590000</v>
+        <v>1989.59</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1605.240000</v>
+        <v>-1605.24</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>37811.230044</v>
+        <v>37811.230044000004</v>
       </c>
       <c r="B22" s="1">
         <v>10.503119</v>
       </c>
       <c r="C22" s="1">
-        <v>904.709000</v>
+        <v>904.70899999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-182.040000</v>
+        <v>-182.04</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>37821.683936</v>
+        <v>37821.683936000001</v>
       </c>
       <c r="G22" s="1">
-        <v>10.506023</v>
+        <v>10.506023000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>920.727000</v>
+        <v>920.72699999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-157.020000</v>
+        <v>-157.02000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>37832.219956</v>
+        <v>37832.219956000001</v>
       </c>
       <c r="L22" s="1">
-        <v>10.508950</v>
+        <v>10.50895</v>
       </c>
       <c r="M22" s="1">
-        <v>944.622000</v>
+        <v>944.62199999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.088000</v>
+        <v>-116.08799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>37842.407781</v>
+        <v>37842.407781000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.511780</v>
+        <v>10.51178</v>
       </c>
       <c r="R22" s="1">
-        <v>952.155000</v>
+        <v>952.15499999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.237000</v>
+        <v>-102.23699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>37852.881303</v>
+        <v>37852.881303000002</v>
       </c>
       <c r="V22" s="1">
-        <v>10.514689</v>
+        <v>10.514689000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>959.670000</v>
+        <v>959.67</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.603500</v>
+        <v>-89.603499999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>37863.758424</v>
@@ -5696,240 +6112,240 @@
         <v>10.517711</v>
       </c>
       <c r="AB22" s="1">
-        <v>967.858000</v>
+        <v>967.85799999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.565900</v>
+        <v>-80.565899999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>37874.184971</v>
+        <v>37874.184971000002</v>
       </c>
       <c r="AF22" s="1">
         <v>10.520607</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.213000</v>
+        <v>973.21299999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.227200</v>
+        <v>-80.227199999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>37884.458638</v>
+        <v>37884.458637999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.523461</v>
+        <v>10.523460999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>981.461000</v>
+        <v>981.46100000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.983400</v>
+        <v>-87.983400000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>37896.063019</v>
+        <v>37896.063019000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.526684</v>
+        <v>10.526683999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.756000</v>
+        <v>990.75599999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.918000</v>
+        <v>-102.91800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>37907.189760</v>
+        <v>37907.189760000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.529775</v>
+        <v>10.529775000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.484000</v>
+        <v>-124.48399999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>37918.562530</v>
+        <v>37918.562530000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.532934</v>
+        <v>10.532933999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.263000</v>
+        <v>-143.26300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>37929.570275</v>
+        <v>37929.570274999998</v>
       </c>
       <c r="BE22" s="1">
         <v>10.535992</v>
       </c>
       <c r="BF22" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.477000</v>
+        <v>-228.477</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>37940.265477</v>
+        <v>37940.265477000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.538963</v>
+        <v>10.538963000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.669000</v>
+        <v>-365.66899999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>37951.188901</v>
+        <v>37951.188901000001</v>
       </c>
       <c r="BO22" s="1">
         <v>10.541997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.910000</v>
+        <v>1266.9100000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.816000</v>
+        <v>-578.81600000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>37961.731335</v>
+        <v>37961.731334999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.544925</v>
+        <v>10.544924999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1414.560000</v>
+        <v>1414.56</v>
       </c>
       <c r="BV22" s="1">
-        <v>-806.959000</v>
+        <v>-806.95899999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>37972.309554</v>
+        <v>37972.309553999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.547864</v>
+        <v>10.547864000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1577.610000</v>
+        <v>1577.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1046.200000</v>
+        <v>-1046.2</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>37985.118201</v>
+        <v>37985.118200999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.551422</v>
+        <v>10.551422000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1989.740000</v>
+        <v>1989.74</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1605.420000</v>
+        <v>-1605.42</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>37811.657310</v>
+        <v>37811.657310000002</v>
       </c>
       <c r="B23" s="1">
         <v>10.503238</v>
       </c>
       <c r="C23" s="1">
-        <v>904.431000</v>
+        <v>904.43100000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-181.991000</v>
+        <v>-181.99100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>37822.113473</v>
+        <v>37822.113472999998</v>
       </c>
       <c r="G23" s="1">
         <v>10.506143</v>
       </c>
       <c r="H23" s="1">
-        <v>920.747000</v>
+        <v>920.74699999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-157.132000</v>
+        <v>-157.13200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>37832.517587</v>
+        <v>37832.517587000002</v>
       </c>
       <c r="L23" s="1">
-        <v>10.509033</v>
+        <v>10.509033000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>944.692000</v>
+        <v>944.69200000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.051000</v>
+        <v>-116.051</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>37842.752006</v>
+        <v>37842.752006000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>10.511876</v>
+        <v>10.511876000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>952.163000</v>
+        <v>952.16300000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.212000</v>
+        <v>-102.212</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>37853.226295</v>
@@ -5938,390 +6354,390 @@
         <v>10.514785</v>
       </c>
       <c r="W23" s="1">
-        <v>959.760000</v>
+        <v>959.76</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.559200</v>
+        <v>-89.559200000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>37864.107258</v>
+        <v>37864.107258000004</v>
       </c>
       <c r="AA23" s="1">
         <v>10.517808</v>
       </c>
       <c r="AB23" s="1">
-        <v>967.765000</v>
+        <v>967.76499999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.520800</v>
+        <v>-80.520799999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>37874.528204</v>
+        <v>37874.528204000002</v>
       </c>
       <c r="AF23" s="1">
         <v>10.520702</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.261000</v>
+        <v>973.26099999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.220700</v>
+        <v>-80.220699999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>37885.158461</v>
+        <v>37885.158460999999</v>
       </c>
       <c r="AK23" s="1">
         <v>10.523655</v>
       </c>
       <c r="AL23" s="1">
-        <v>981.427000</v>
+        <v>981.42700000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.986200</v>
+        <v>-87.986199999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>37896.424095</v>
+        <v>37896.424095000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.526784</v>
+        <v>10.526783999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.763000</v>
+        <v>990.76300000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.924000</v>
+        <v>-102.92400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>37907.581599</v>
+        <v>37907.581598999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.529884</v>
+        <v>10.529883999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.480000</v>
+        <v>-124.48</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>37918.922656</v>
+        <v>37918.922656000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.533034</v>
+        <v>10.533034000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1011.780000</v>
+        <v>1011.78</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.270000</v>
+        <v>-143.27000000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>37930.238850</v>
+        <v>37930.238850000002</v>
       </c>
       <c r="BE23" s="1">
         <v>10.536177</v>
       </c>
       <c r="BF23" s="1">
-        <v>1056.880000</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.490000</v>
+        <v>-228.49</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>37940.983189</v>
+        <v>37940.983188999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.539162</v>
+        <v>10.539161999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.673000</v>
+        <v>-365.673</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>37951.310885</v>
+        <v>37951.310884999999</v>
       </c>
       <c r="BO23" s="1">
         <v>10.542031</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.768000</v>
+        <v>-578.76800000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>37961.848893</v>
+        <v>37961.848893000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>10.544958</v>
+        <v>10.544957999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1414.630000</v>
+        <v>1414.63</v>
       </c>
       <c r="BV23" s="1">
-        <v>-806.936000</v>
+        <v>-806.93600000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>37972.732136</v>
+        <v>37972.732135999999</v>
       </c>
       <c r="BY23" s="1">
         <v>10.547981</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1577.600000</v>
+        <v>1577.6</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1046.190000</v>
+        <v>-1046.19</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>37985.663802</v>
+        <v>37985.663802000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.551573</v>
+        <v>10.551572999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1990.500000</v>
+        <v>1990.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1604.450000</v>
+        <v>-1604.45</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>37811.930606</v>
+        <v>37811.930606000002</v>
       </c>
       <c r="B24" s="1">
         <v>10.503314</v>
       </c>
       <c r="C24" s="1">
-        <v>904.633000</v>
+        <v>904.63300000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-182.104000</v>
+        <v>-182.10400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>37822.378873</v>
+        <v>37822.378873000001</v>
       </c>
       <c r="G24" s="1">
         <v>10.506216</v>
       </c>
       <c r="H24" s="1">
-        <v>920.609000</v>
+        <v>920.60900000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-157.170000</v>
+        <v>-157.16999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>37832.862274</v>
+        <v>37832.862273999999</v>
       </c>
       <c r="L24" s="1">
         <v>10.509128</v>
       </c>
       <c r="M24" s="1">
-        <v>944.600000</v>
+        <v>944.6</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.109000</v>
+        <v>-116.10899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>37843.101685</v>
+        <v>37843.101685000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.511973</v>
+        <v>10.511972999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>952.132000</v>
+        <v>952.13199999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>37853.568300</v>
+        <v>37853.568299999999</v>
       </c>
       <c r="V24" s="1">
-        <v>10.514880</v>
+        <v>10.51488</v>
       </c>
       <c r="W24" s="1">
-        <v>959.759000</v>
+        <v>959.75900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.534900</v>
+        <v>-89.534899999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>37864.804168</v>
+        <v>37864.804168000002</v>
       </c>
       <c r="AA24" s="1">
         <v>10.518001</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.895000</v>
+        <v>967.89499999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.606200</v>
+        <v>-80.606200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>37875.210203</v>
+        <v>37875.210203000002</v>
       </c>
       <c r="AF24" s="1">
         <v>10.520892</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.217000</v>
+        <v>973.21699999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.180600</v>
+        <v>-80.180599999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>37885.504204</v>
+        <v>37885.504203999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.523751</v>
+        <v>10.523751000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>981.454000</v>
+        <v>981.45399999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.991400</v>
+        <v>-87.991399999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>37896.784189</v>
+        <v>37896.784188999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.526884</v>
+        <v>10.526884000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.932000</v>
+        <v>-102.932</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>37907.945166</v>
+        <v>37907.945165999998</v>
       </c>
       <c r="AU24" s="1">
         <v>10.529985</v>
       </c>
       <c r="AV24" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.502000</v>
+        <v>-124.502</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>37919.587017</v>
+        <v>37919.587016999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.533219</v>
+        <v>10.533219000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1011.780000</v>
+        <v>1011.78</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.269000</v>
+        <v>-143.26900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>37930.690240</v>
+        <v>37930.690240000004</v>
       </c>
       <c r="BE24" s="1">
         <v>10.536303</v>
       </c>
       <c r="BF24" s="1">
-        <v>1056.880000</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.462000</v>
+        <v>-228.46199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>37941.414707</v>
+        <v>37941.414707000004</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.539282</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.673000</v>
+        <v>-365.673</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>37951.719589</v>
@@ -6330,437 +6746,437 @@
         <v>10.542144</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.920000</v>
+        <v>1266.92</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.775000</v>
+        <v>-578.77499999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>37962.286854</v>
+        <v>37962.286853999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.545080</v>
+        <v>10.54508</v>
       </c>
       <c r="BU24" s="1">
-        <v>1414.690000</v>
+        <v>1414.69</v>
       </c>
       <c r="BV24" s="1">
-        <v>-806.860000</v>
+        <v>-806.86</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>37973.156680</v>
+        <v>37973.15668</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.548099</v>
+        <v>10.548099000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1577.690000</v>
+        <v>1577.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1046.190000</v>
+        <v>-1046.19</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>37986.193059</v>
+        <v>37986.193058999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.551720</v>
+        <v>10.55172</v>
       </c>
       <c r="CE24" s="1">
-        <v>1990.450000</v>
+        <v>1990.45</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1605.780000</v>
+        <v>-1605.78</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>37812.270861</v>
+        <v>37812.270860999997</v>
       </c>
       <c r="B25" s="1">
         <v>10.503409</v>
       </c>
       <c r="C25" s="1">
-        <v>904.417000</v>
+        <v>904.41700000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-181.991000</v>
+        <v>-181.99100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>37822.725578</v>
+        <v>37822.725577999998</v>
       </c>
       <c r="G25" s="1">
         <v>10.506313</v>
       </c>
       <c r="H25" s="1">
-        <v>921.208000</v>
+        <v>921.20799999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-157.082000</v>
+        <v>-157.08199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>37833.206497</v>
+        <v>37833.206496999999</v>
       </c>
       <c r="L25" s="1">
         <v>10.509224</v>
       </c>
       <c r="M25" s="1">
-        <v>944.468000</v>
+        <v>944.46799999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-115.940000</v>
+        <v>-115.94</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>37843.799556</v>
+        <v>37843.799555999998</v>
       </c>
       <c r="Q25" s="1">
         <v>10.512167</v>
       </c>
       <c r="R25" s="1">
-        <v>952.168000</v>
+        <v>952.16800000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>37854.254725</v>
+        <v>37854.254724999999</v>
       </c>
       <c r="V25" s="1">
-        <v>10.515071</v>
+        <v>10.515071000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>959.687000</v>
+        <v>959.68700000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.532100</v>
+        <v>-89.5321</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>37865.150344</v>
+        <v>37865.150344000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.518097</v>
+        <v>10.518096999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.886000</v>
+        <v>967.88599999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.527300</v>
+        <v>-80.527299999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>37875.727035</v>
+        <v>37875.727035000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.521035</v>
+        <v>10.521034999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.224000</v>
+        <v>973.22400000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.189800</v>
+        <v>-80.189800000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>37885.851868</v>
+        <v>37885.851867999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.523848</v>
+        <v>10.523847999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>981.435000</v>
+        <v>981.43499999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.963600</v>
+        <v>-87.9636</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>37897.451806</v>
+        <v>37897.451805999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.527070</v>
+        <v>10.52707</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.751000</v>
+        <v>990.75099999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.922000</v>
+        <v>-102.922</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>37908.624189</v>
+        <v>37908.624189000002</v>
       </c>
       <c r="AU25" s="1">
         <v>10.530173</v>
       </c>
       <c r="AV25" s="1">
-        <v>1002.160000</v>
+        <v>1002.16</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.486000</v>
+        <v>-124.486</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>37920.032672</v>
+        <v>37920.032672000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.533342</v>
+        <v>10.533341999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1011.770000</v>
+        <v>1011.77</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.258000</v>
+        <v>-143.25800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>37931.052562</v>
+        <v>37931.052561999997</v>
       </c>
       <c r="BE25" s="1">
         <v>10.536403</v>
       </c>
       <c r="BF25" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.449000</v>
+        <v>-228.44900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>37941.819970</v>
+        <v>37941.819969999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>10.539394</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.920000</v>
+        <v>1135.92</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.685000</v>
+        <v>-365.685</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>37952.117243</v>
+        <v>37952.117243000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.542255</v>
+        <v>10.542255000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.795000</v>
+        <v>-578.79499999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>37962.695559</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.545193</v>
+        <v>10.545192999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1414.830000</v>
+        <v>1414.83</v>
       </c>
       <c r="BV25" s="1">
-        <v>-806.889000</v>
+        <v>-806.88900000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>37973.571832</v>
+        <v>37973.571832000001</v>
       </c>
       <c r="BY25" s="1">
         <v>10.548214</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1577.660000</v>
+        <v>1577.66</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>37986.711884</v>
+        <v>37986.711883999997</v>
       </c>
       <c r="CD25" s="1">
         <v>10.551864</v>
       </c>
       <c r="CE25" s="1">
-        <v>1992.150000</v>
+        <v>1992.15</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1604.920000</v>
+        <v>-1604.92</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>37812.614094</v>
+        <v>37812.614093999997</v>
       </c>
       <c r="B26" s="1">
         <v>10.503504</v>
       </c>
       <c r="C26" s="1">
-        <v>904.529000</v>
+        <v>904.529</v>
       </c>
       <c r="D26" s="1">
-        <v>-181.909000</v>
+        <v>-181.90899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>37823.070256</v>
+        <v>37823.070255999999</v>
       </c>
       <c r="G26" s="1">
         <v>10.506408</v>
       </c>
       <c r="H26" s="1">
-        <v>920.565000</v>
+        <v>920.56500000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-156.863000</v>
+        <v>-156.863</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>37833.898949</v>
+        <v>37833.898949000002</v>
       </c>
       <c r="L26" s="1">
         <v>10.509416</v>
       </c>
       <c r="M26" s="1">
-        <v>944.463000</v>
+        <v>944.46299999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.013000</v>
+        <v>-116.01300000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>37844.147252</v>
+        <v>37844.147252000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.512263</v>
+        <v>10.512263000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>952.239000</v>
+        <v>952.23900000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.299000</v>
+        <v>-102.29900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>37854.598985</v>
+        <v>37854.598984999997</v>
       </c>
       <c r="V26" s="1">
-        <v>10.515166</v>
+        <v>10.515166000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>959.723000</v>
+        <v>959.72299999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.522200</v>
+        <v>-89.522199999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>37865.502504</v>
+        <v>37865.502503999996</v>
       </c>
       <c r="AA26" s="1">
         <v>10.518195</v>
       </c>
       <c r="AB26" s="1">
-        <v>967.942000</v>
+        <v>967.94200000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.568200</v>
+        <v>-80.568200000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>37875.930430</v>
+        <v>37875.93043</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.521092</v>
+        <v>10.521091999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.240000</v>
+        <v>973.24</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.247600</v>
+        <v>-80.247600000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>37886.512043</v>
+        <v>37886.512043000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.524031</v>
+        <v>10.524031000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>981.481000</v>
+        <v>981.48099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.985500</v>
+        <v>-87.985500000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>37897.894236</v>
@@ -6769,135 +7185,136 @@
         <v>10.527193</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.759000</v>
+        <v>990.75900000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.911000</v>
+        <v>-102.911</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>37909.075055</v>
+        <v>37909.075055000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.530299</v>
+        <v>10.530298999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1002.170000</v>
+        <v>1002.17</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.476000</v>
+        <v>-124.476</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>37920.390815</v>
+        <v>37920.390814999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.533442</v>
+        <v>10.533442000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1011.760000</v>
+        <v>1011.76</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.257000</v>
+        <v>-143.25700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>37931.410434</v>
+        <v>37931.410433999998</v>
       </c>
       <c r="BE26" s="1">
         <v>10.536503</v>
       </c>
       <c r="BF26" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.450000</v>
+        <v>-228.45</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>37942.194450</v>
+        <v>37942.194450000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.539498</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.900000</v>
+        <v>1135.9000000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.702000</v>
+        <v>-365.702</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>37952.537988</v>
+        <v>37952.537987999996</v>
       </c>
       <c r="BO26" s="1">
         <v>10.542372</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.910000</v>
+        <v>1266.9100000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.747000</v>
+        <v>-578.74699999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>37963.130055</v>
+        <v>37963.130055000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>10.545314</v>
+        <v>10.545313999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1414.870000</v>
+        <v>1414.87</v>
       </c>
       <c r="BV26" s="1">
-        <v>-806.911000</v>
+        <v>-806.91099999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>37974.030137</v>
+        <v>37974.030137000002</v>
       </c>
       <c r="BY26" s="1">
         <v>10.548342</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1577.650000</v>
+        <v>1577.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>37987.253017</v>
+        <v>37987.253017000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.552015</v>
+        <v>10.552015000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1990.160000</v>
+        <v>1990.16</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1604.770000</v>
+        <v>-1604.77</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>